--- a/biology/Médecine/Ignác_Péczely/Ignác_Péczely.xlsx
+++ b/biology/Médecine/Ignác_Péczely/Ignác_Péczely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ign%C3%A1c_P%C3%A9czely</t>
+          <t>Ignác_Péczely</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ignác Péczely (en allemand : Ignaz von Peczely), né le 26 janvier 1826 à Monyorókerék et mort à Budapest le 14 juillet 1911, est médecin  homéopathe hongrois. 
 Il pose les fondations de l’iridologie moderne dans son ouvrage « Découverte dans le domaine de la thérapeutique et du naturisme. Introduction à l'étude du diagnostic par les yeux », paru en 1881. Cette discipline entend diagnostiquer des maladies organiques par les changements de couleur et de forme de l’iris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ign%C3%A1c_P%C3%A9czely</t>
+          <t>Ignác_Péczely</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Péczely est le fils de Ignácz Péczely, intendant de domaine, et de Terézia Kárácson. Il fréquente l'école de Szombathely où on se souvint de lui plus pour sa grande mémoire que pour son assiduité. En 1838, à l'âge de douze ans, ce passe un événement qui lui laissera une marque profonde: il essaie de libérer un hibou qui lui enfonce alors ses griffes dans la main. Dans un mélange de douleur et de colère et voulant se débarrasser de l'oiseau, il lui casse la patte droite et remarque alors que l'œil du même côté est injecté de sang. 
 Les années passent. La guerre d'indépendance hongroise de 1848-49 éclate, dans laquelle le jeune Péczely se lance avec enthousiasme. Chef des volontaires du comté de Sopron, il participe à plusieurs batailles, devient garde national (honvéd) et est blessé lors de la bataille de Nagyszombat d'où sa mère - défiant tous les dangers - le ramène chez lui. Après la défaite de la guerre d'indépendance, il s'installe à Kaposvár et gagne sa vie comme photographe, professeur d'art dans un lycée et géomètre. Il retourne en 1861 chez ses parents à Egervár, et son destin prend dès lors une singulière tournures.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ign%C3%A1c_P%C3%A9czely</t>
+          <t>Ignác_Péczely</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A szivárványhártyáról. (Iris). Budapest, 1873
 Utmutatás a szemekbőli kórisme tanulmányozásához. Budapest, 1880
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ign%C3%A1c_P%C3%A9czely</t>
+          <t>Ignác_Péczely</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,6 +602,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
